--- a/biology/Zoologie/Dugesia_(ver_plat)/Dugesia_(ver_plat).xlsx
+++ b/biology/Zoologie/Dugesia_(ver_plat)/Dugesia_(ver_plat).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dugesia est un genre de vers plats d'eau douce de la famille des Dugesiidae. Le genre possède 111 espèces valides[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dugesia est un genre de vers plats d'eau douce de la famille des Dugesiidae. Le genre possède 111 espèces valides.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,17 +551,123 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dugesia Girard, 1850[1].
-Homonymie
-Ce nom de genre ne doit pas être confondu avec Dugesia A. Gray, un genre de plantes de la famille des Asteraceae.
-Synonymes de Dugesia
-Dugesia Girard, 1850 a pour synonyme les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dugesia Girard, 1850.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Homonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nom de genre ne doit pas être confondu avec Dugesia A. Gray, un genre de plantes de la famille des Asteraceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes de Dugesia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dugesia Girard, 1850 a pour synonyme les genres suivants :
 Euplanaria Hesse, 1897 ;
-Geopaludicola Komarek, 1919[1].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (13 janvier 2024)[1], le genre Dugesia contient les espèces suivantes :
+Geopaludicola Komarek, 1919.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (13 janvier 2024), le genre Dugesia contient les espèces suivantes :
 Dugesia absoloni (Komarek, 1919)
 Dugesia aenigma De Vries, 1984
 Dugesia aethiopica Stocchino, Corso, Manconi &amp; Pala, 2002
@@ -659,8 +779,43 @@
 Dugesia venusta (Bohmig, 1897)
 Dugesia vestibularis De Vries, 1988
 Dugesia wytegrensis (Sabussow, 1907)
-Synonymes, reclassements, suppressions
-D'après World Register of Marine Species                               (13 janvier 2024)[1], les noms d'espèces suivants sont des synonymes. Sauf mention contraire, les genres des espèces reclassées appartiennent à la famille des Dugesiidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_(ver_plat)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements, suppressions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (13 janvier 2024), les noms d'espèces suivants sont des synonymes. Sauf mention contraire, les genres des espèces reclassées appartiennent à la famille des Dugesiidae.
 l'espèce Dugesia agilis (Stringer, 1909) est renommée en Girardia dorotocephala (Woodworth, 1897)
 l'espèce Dugesia alpina (Dana, 1766) est reclassée dans la famille des Planariidae sous le nom Crenobia alpina (Dana, 1766)
 l'espèce Dugesia ambigua (Bohmig, 1902) est renommée en Curtisia ambigua (Bohmig, 1902)
@@ -725,12 +880,12 @@
 Dugesia bilineata (Kaburaki, 1918) ;
 Dugesia persica Behzad, Masoud &amp; Mahmood, 1998 ;
 Dugesia rava (Weiss, 1909) ;
-Dugesia tiberiensis (Whitehouse, 1914)[1].
+Dugesia tiberiensis (Whitehouse, 1914).
 Les espèces suivantes sont des taxa inquirenda, donc non retenus :
 Dugesia colapha Dahm, 1967 ;
 Dugesia congolensis de Beauchamp, 1951 ;
 Dugesia salina (Whitehouse, 1914) ;
-Dugesia sudanica Dahm, 1971[1].</t>
+Dugesia sudanica Dahm, 1971.</t>
         </is>
       </c>
     </row>
